--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\DSA_Project_Github\Graph_Data_Structure_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B11E12-17BD-4801-A1DF-F96B0BE1298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CD3CB-6331-4F1A-AE64-FFEFAE173591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83086FDB-1865-495A-AE93-F32DA746EDE2}"/>
+    <workbookView xWindow="3732" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{83086FDB-1865-495A-AE93-F32DA746EDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>propertyname</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>midsem</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21601FD-DC9A-4A86-B169-1C34C3FF9607}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +479,72 @@
         <v>11564</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>10.67</v>
+      </c>
+      <c r="C10">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\DSA_Project_Github\Graph_Data_Structure_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CD3CB-6331-4F1A-AE64-FFEFAE173591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0540D17B-657F-447E-8757-F20F96D0B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{83086FDB-1865-495A-AE93-F32DA746EDE2}"/>
+    <workbookView xWindow="3684" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{83086FDB-1865-495A-AE93-F32DA746EDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21601FD-DC9A-4A86-B169-1C34C3FF9607}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +418,7 @@
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -446,7 +446,7 @@
         <v>8175.67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -457,7 +457,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -468,7 +468,7 @@
         <v>5907</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -479,12 +479,12 @@
         <v>11564</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -511,8 +511,14 @@
       <c r="C10">
         <v>10.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>4.5555560000000002</v>
+      </c>
+      <c r="E10">
+        <v>4.5555560000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -523,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -534,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -543,6 +549,576 @@
       </c>
       <c r="C13">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>B16+C16+D16+E16+F16+G16</f>
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <f>H16/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f>B17+C17+D17+E17+F17+G17</f>
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <f>H17/6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f>B18+C18+D18+E18+F18+G18</f>
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <f>H18/6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <f>B19+C19+D19+E19+F19+G19</f>
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <f>H19/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f>B20+C20+D20+E20+F20+G20</f>
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <f>H20/6</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>B21+C21+D21+E21+F21+G21</f>
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <f>H21/6</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J21">
+        <f xml:space="preserve"> (I16+I17+I18+I19+I20+I21)/6</f>
+        <v>4.5555555555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f>B23+C23+D23+E23+F23+G23</f>
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <f>H23/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f>B24+C24+D24+E24+F24+G24</f>
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <f>H24/6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <f>B25+C25+D25+E25+F25+G25</f>
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <f>H25/6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <f>B26+C26+D26+E26+F26+G26</f>
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <f>H26/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f>B27+C27+D27+E27+F27+G27</f>
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <f>H27/6</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>B28+C28+D28+E28+F28+G28</f>
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <f>H28/6</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J28">
+        <f xml:space="preserve"> (I23+I24+I25+I26+I27+I28)/6</f>
+        <v>4.5555555555555554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f>B30+C30+D30+E30+F30+G30</f>
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <f>H30/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <f>B31+C31+D31+E31+F31+G31</f>
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <f>H31/6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <f>B32+C32+D32+E32+F32+G32</f>
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <f>H32/6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f>B33+C33+D33+E33+F33+G33</f>
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <f>H33/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>B34+C34+D34+E34+F34+G34</f>
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <f>H34/6</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>B35+C35+D35+E35+F35+G35</f>
+        <v>26</v>
+      </c>
+      <c r="I35">
+        <f>H35/6</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J35">
+        <f xml:space="preserve"> (I30+I31+I32+I33+I34+ I35)/6</f>
+        <v>4.5555555555555554</v>
       </c>
     </row>
   </sheetData>
